--- a/Code/Results/Cases/Case_2_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10076690302903</v>
+        <v>16.77516109082218</v>
       </c>
       <c r="C2">
-        <v>12.47545548181387</v>
+        <v>12.00691989816932</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.178636461733266</v>
+        <v>15.91959507680913</v>
       </c>
       <c r="F2">
-        <v>25.90413818033226</v>
+        <v>38.67410743912644</v>
       </c>
       <c r="G2">
-        <v>2.093645568335611</v>
+        <v>3.65945006192706</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.63678951295416</v>
+        <v>8.232652121800822</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.780425547322675</v>
+        <v>12.31552533303935</v>
       </c>
       <c r="M2">
-        <v>13.44635219274381</v>
+        <v>16.96736302495654</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.97117931964187</v>
+        <v>25.17923915579559</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67432545579406</v>
+        <v>16.28589118250084</v>
       </c>
       <c r="C3">
-        <v>12.09252632034935</v>
+        <v>11.87400362820946</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.244887237658277</v>
+        <v>15.9596418490704</v>
       </c>
       <c r="F3">
-        <v>25.61807259004566</v>
+        <v>38.77913314024681</v>
       </c>
       <c r="G3">
-        <v>2.099518174743878</v>
+        <v>3.661644842525671</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.627889201249201</v>
+        <v>8.233091700986588</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.608778525093567</v>
+        <v>12.30519580041614</v>
       </c>
       <c r="M3">
-        <v>12.80320496673799</v>
+        <v>16.84823663255789</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.014697663302</v>
+        <v>25.294088368547</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74673745304253</v>
+        <v>15.97954520309201</v>
       </c>
       <c r="C4">
-        <v>11.85190119032504</v>
+        <v>11.79145150709885</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.288848713154925</v>
+        <v>15.98588193838138</v>
       </c>
       <c r="F4">
-        <v>25.46718243613074</v>
+        <v>38.85345887512945</v>
       </c>
       <c r="G4">
-        <v>2.10323066532442</v>
+        <v>3.663063612318203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.623022041787587</v>
+        <v>8.233665928874686</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.503844778263187</v>
+        <v>12.30010767453179</v>
       </c>
       <c r="M4">
-        <v>12.39513080216018</v>
+        <v>16.77654884899353</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.06080556696663</v>
+        <v>25.37114008423291</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.35563892747232</v>
+        <v>15.85339536486431</v>
       </c>
       <c r="C5">
-        <v>11.75255330767904</v>
+        <v>11.75759702162447</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.307577574306766</v>
+        <v>15.99699094863865</v>
       </c>
       <c r="F5">
-        <v>25.41178653993472</v>
+        <v>38.88621447878486</v>
       </c>
       <c r="G5">
-        <v>2.104771111542592</v>
+        <v>3.663659725267994</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.621188673495081</v>
+        <v>8.233976828167259</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.461244333432465</v>
+        <v>12.2983514561307</v>
       </c>
       <c r="M5">
-        <v>12.22571154053418</v>
+        <v>16.74772350628098</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.08423106329594</v>
+        <v>25.40417718201254</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.28990366376728</v>
+        <v>15.83237459157837</v>
       </c>
       <c r="C6">
-        <v>11.73598158711432</v>
+        <v>11.75196326592072</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.310736342430888</v>
+        <v>15.99886073646919</v>
       </c>
       <c r="F6">
-        <v>25.40295188526405</v>
+        <v>38.8918023243335</v>
       </c>
       <c r="G6">
-        <v>2.105028588221834</v>
+        <v>3.66375979536375</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.620893299053949</v>
+        <v>8.234033107981254</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.454181639743636</v>
+        <v>12.29807904925634</v>
       </c>
       <c r="M6">
-        <v>12.19739694737403</v>
+        <v>16.74296114054424</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.08839391155387</v>
+        <v>25.40976174233442</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74151611258422</v>
+        <v>15.97784896446716</v>
       </c>
       <c r="C7">
-        <v>11.85056644811485</v>
+        <v>11.79099576916534</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.289098015011362</v>
+        <v>15.98603007316471</v>
       </c>
       <c r="F7">
-        <v>25.46641086481755</v>
+        <v>38.8538906484345</v>
       </c>
       <c r="G7">
-        <v>2.103251327700751</v>
+        <v>3.663071578939126</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.622996709155339</v>
+        <v>8.233669809935378</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.503269540952958</v>
+        <v>12.30008270273119</v>
       </c>
       <c r="M7">
-        <v>12.39285833841906</v>
+        <v>16.77615850093975</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.06110303418261</v>
+        <v>25.37157900909268</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61961739624051</v>
+        <v>16.60779637786373</v>
       </c>
       <c r="C8">
-        <v>12.3446169930895</v>
+        <v>11.96129926553821</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.200791242487318</v>
+        <v>15.9330609473871</v>
       </c>
       <c r="F8">
-        <v>25.80029119782081</v>
+        <v>38.70827407552061</v>
       </c>
       <c r="G8">
-        <v>2.095648763139012</v>
+        <v>3.660192086566</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.633596478968669</v>
+        <v>8.232740748790194</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.721173508226411</v>
+        <v>12.31170452592896</v>
       </c>
       <c r="M8">
-        <v>13.22743361466648</v>
+        <v>16.92599924599533</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.98201642124711</v>
+        <v>25.21748002454568</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.89595880835194</v>
+        <v>17.78877577309483</v>
       </c>
       <c r="C9">
-        <v>13.26617772844479</v>
+        <v>12.28681307912102</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.054217815779511</v>
+        <v>15.84225641330729</v>
       </c>
       <c r="F9">
-        <v>26.65641498153038</v>
+        <v>38.50108241747566</v>
       </c>
       <c r="G9">
-        <v>2.081550721996002</v>
+        <v>3.655107448980128</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.659139435703927</v>
+        <v>8.233317596673572</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.150202407394865</v>
+        <v>12.34436282204513</v>
       </c>
       <c r="M9">
-        <v>14.75274596666829</v>
+        <v>17.23041000597937</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.99145670438739</v>
+        <v>24.96736074140238</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.06085021035732</v>
+        <v>18.61449249295694</v>
       </c>
       <c r="C10">
-        <v>13.91033410092429</v>
+        <v>12.51952683236968</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.963549990815917</v>
+        <v>15.78346200830314</v>
       </c>
       <c r="F10">
-        <v>27.41374763878222</v>
+        <v>38.39699340490941</v>
       </c>
       <c r="G10">
-        <v>2.071633636443557</v>
+        <v>3.651710715607415</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.680831184324616</v>
+        <v>8.23518288737851</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.464066840911183</v>
+        <v>12.37425560757147</v>
       </c>
       <c r="M10">
-        <v>15.79850856912272</v>
+        <v>17.4591640086743</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.11318938869513</v>
+        <v>24.81564525509172</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.9943797037082</v>
+        <v>18.97942095693964</v>
       </c>
       <c r="C11">
-        <v>14.19556094737645</v>
+        <v>12.62373126719485</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.926191823696598</v>
+        <v>15.75842473541385</v>
       </c>
       <c r="F11">
-        <v>27.78702134742038</v>
+        <v>38.36015755606545</v>
       </c>
       <c r="G11">
-        <v>2.06720507915843</v>
+        <v>3.650238269201971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.691340837712695</v>
+        <v>8.23634001576136</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.606112662168146</v>
+        <v>12.38910830852441</v>
       </c>
       <c r="M11">
-        <v>16.25699152183428</v>
+        <v>17.56404597948362</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.19651908393275</v>
+        <v>24.75364888375823</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.34061361139717</v>
+        <v>19.11595549413624</v>
       </c>
       <c r="C12">
-        <v>14.30240316294285</v>
+        <v>12.66293081199452</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.91262178767551</v>
+        <v>15.7491887231954</v>
       </c>
       <c r="F12">
-        <v>27.93255948675189</v>
+        <v>38.34772497108819</v>
       </c>
       <c r="G12">
-        <v>2.065538871858023</v>
+        <v>3.649691093184939</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.695413376558841</v>
+        <v>8.236822177126783</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.659763423002623</v>
+        <v>12.3949104810612</v>
       </c>
       <c r="M12">
-        <v>16.42807114828929</v>
+        <v>17.60385512140327</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.23233272736744</v>
+        <v>24.73118714366218</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.26636776620282</v>
+        <v>19.08662574081998</v>
       </c>
       <c r="C13">
-        <v>14.27944530143353</v>
+        <v>12.6545004133027</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.91551839330165</v>
+        <v>15.75116697462128</v>
       </c>
       <c r="F13">
-        <v>27.90102826106939</v>
+        <v>38.35033504923301</v>
       </c>
       <c r="G13">
-        <v>2.065897258067477</v>
+        <v>3.649808475296203</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.694532149293486</v>
+        <v>8.236716385245956</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.648215443454244</v>
+        <v>12.39365301520652</v>
       </c>
       <c r="M13">
-        <v>16.39133971257266</v>
+        <v>17.59527779591802</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.22442650587471</v>
+        <v>24.73597945483889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.02300974808274</v>
+        <v>18.99068755712034</v>
       </c>
       <c r="C14">
-        <v>14.20437453416965</v>
+        <v>12.62696157987166</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.925063744824371</v>
+        <v>15.75765997537979</v>
       </c>
       <c r="F14">
-        <v>27.79891066508807</v>
+        <v>38.35910430760885</v>
       </c>
       <c r="G14">
-        <v>2.067067789673778</v>
+        <v>3.650193044423055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.691674026147556</v>
+        <v>8.236378804271292</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.61052950517168</v>
+        <v>12.38958210909011</v>
       </c>
       <c r="M14">
-        <v>16.27111748310629</v>
+        <v>17.5673193909466</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.19937880852691</v>
+        <v>24.75178057075557</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87300181179294</v>
+        <v>18.93170369535233</v>
       </c>
       <c r="C15">
-        <v>14.1582383656946</v>
+        <v>12.61005869508706</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.930986198353239</v>
+        <v>15.76166902111039</v>
       </c>
       <c r="F15">
-        <v>27.73690742626792</v>
+        <v>38.36467332167224</v>
       </c>
       <c r="G15">
-        <v>2.067786145006597</v>
+        <v>3.650429957908999</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.689935437463544</v>
+        <v>8.236177742178304</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.587426758624245</v>
+        <v>12.38711163447021</v>
       </c>
       <c r="M15">
-        <v>16.19714594290567</v>
+        <v>17.55020536771143</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.18459790178054</v>
+        <v>24.76159154754178</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.99881840462716</v>
+        <v>18.59041798880476</v>
       </c>
       <c r="C16">
-        <v>13.89153278851309</v>
+        <v>12.5126815676366</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.966071140327033</v>
+        <v>15.78513257991364</v>
       </c>
       <c r="F16">
-        <v>27.38993667026386</v>
+        <v>38.3996126859077</v>
       </c>
       <c r="G16">
-        <v>2.071924625554095</v>
+        <v>3.651808402701747</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.680157309043206</v>
+        <v>8.235113442483035</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.454766115458172</v>
+        <v>12.37330996975887</v>
       </c>
       <c r="M16">
-        <v>15.76819327653654</v>
+        <v>17.45232406925012</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.10832668785354</v>
+        <v>24.8198385921479</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44946991292368</v>
+        <v>18.37822328843305</v>
       </c>
       <c r="C17">
-        <v>13.72588412241968</v>
+        <v>12.45250331425422</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.98860241649175</v>
+        <v>15.7999638722937</v>
       </c>
       <c r="F17">
-        <v>27.18448709734121</v>
+        <v>38.42374325642776</v>
       </c>
       <c r="G17">
-        <v>2.07448388450764</v>
+        <v>3.652672627667356</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.67432347226339</v>
+        <v>8.234539289072611</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.373170399387373</v>
+        <v>12.36516254900774</v>
       </c>
       <c r="M17">
-        <v>15.50058149983568</v>
+        <v>17.3924692021408</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.06886867384995</v>
+        <v>24.85737314377937</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12866516756781</v>
+        <v>18.25517418913766</v>
       </c>
       <c r="C18">
-        <v>13.62987502212163</v>
+        <v>12.41773556973741</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.001926546396371</v>
+        <v>15.80865529813872</v>
       </c>
       <c r="F18">
-        <v>27.06902247187008</v>
+        <v>38.43861200739742</v>
       </c>
       <c r="G18">
-        <v>2.075963764958129</v>
+        <v>3.653176557229467</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.671028399575428</v>
+        <v>8.234238121679516</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.326171516899111</v>
+        <v>12.36059459333869</v>
       </c>
       <c r="M18">
-        <v>15.34503789595424</v>
+        <v>17.35812103291461</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.04879069733646</v>
+        <v>24.87962243451912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.01921289700241</v>
+        <v>18.2133438715719</v>
       </c>
       <c r="C19">
-        <v>13.59724372385031</v>
+        <v>12.40593790070581</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.006499991502281</v>
+        <v>15.81162571267616</v>
       </c>
       <c r="F19">
-        <v>27.0303909128842</v>
+        <v>38.44381611189615</v>
       </c>
       <c r="G19">
-        <v>2.07646620996961</v>
+        <v>3.653348357278104</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.669923104707287</v>
+        <v>8.234141156421067</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.310248047168772</v>
+        <v>12.35906834447557</v>
       </c>
       <c r="M19">
-        <v>15.29209729353511</v>
+        <v>17.34650563395249</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.04243474030385</v>
+        <v>24.88726891881454</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.5084485733842</v>
+        <v>18.40091620006431</v>
       </c>
       <c r="C20">
-        <v>13.74359385744727</v>
+        <v>12.45892557493769</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.986166050444625</v>
+        <v>15.79836841224538</v>
       </c>
       <c r="F20">
-        <v>27.20607724296024</v>
+        <v>38.42107207422823</v>
       </c>
       <c r="G20">
-        <v>2.074210641087133</v>
+        <v>3.652579920858693</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.674938240296928</v>
+        <v>8.23459740283838</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.381863610996241</v>
+        <v>12.36601763841059</v>
       </c>
       <c r="M20">
-        <v>15.52923741800056</v>
+        <v>17.39883288655678</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.07279641698479</v>
+        <v>24.85330913657645</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.0946864637905</v>
+        <v>19.01891275112111</v>
       </c>
       <c r="C21">
-        <v>14.22645662323927</v>
+        <v>12.63505764211758</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.92224424484548</v>
+        <v>15.7557461778397</v>
       </c>
       <c r="F21">
-        <v>27.82879105681121</v>
+        <v>38.35648737953745</v>
       </c>
       <c r="G21">
-        <v>2.066723692570429</v>
+        <v>3.650079805114049</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.692511004908272</v>
+        <v>8.236476769484238</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.621602797274583</v>
+        <v>12.39077302930703</v>
       </c>
       <c r="M21">
-        <v>16.30649892519916</v>
+        <v>17.57552914116285</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.20661848741807</v>
+        <v>24.74711181136979</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.08903962236146</v>
+        <v>19.41311062621263</v>
       </c>
       <c r="C22">
-        <v>14.53521871845774</v>
+        <v>12.74864252892034</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.88383820010675</v>
+        <v>15.72931818921997</v>
       </c>
       <c r="F22">
-        <v>28.26019766903639</v>
+        <v>38.32311749785172</v>
       </c>
       <c r="G22">
-        <v>2.061892860990943</v>
+        <v>3.648506473340078</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.704536745046836</v>
+        <v>8.237961219778136</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.777463717365791</v>
+        <v>12.4079870465169</v>
       </c>
       <c r="M22">
-        <v>16.79967624801255</v>
+        <v>17.69153841120269</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.31900540755538</v>
+        <v>24.68362405636963</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.56217444335331</v>
+        <v>19.20364317153257</v>
       </c>
       <c r="C23">
-        <v>14.37106279948367</v>
+        <v>12.68816699656853</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.904021629733448</v>
+        <v>15.74329284026957</v>
       </c>
       <c r="F23">
-        <v>28.02769748056465</v>
+        <v>38.34011753167753</v>
       </c>
       <c r="G23">
-        <v>2.064465853745191</v>
+        <v>3.64934065914776</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.698068727569631</v>
+        <v>8.237145631629078</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.69436316081147</v>
+        <v>12.39870579048931</v>
       </c>
       <c r="M23">
-        <v>16.53782807912652</v>
+        <v>17.62958215626312</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.25666490089811</v>
+        <v>24.7169653429292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48179983084556</v>
+        <v>18.39066001338588</v>
       </c>
       <c r="C24">
-        <v>13.73558969816063</v>
+        <v>12.45602260019467</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.987266378527259</v>
+        <v>15.79908920660837</v>
       </c>
       <c r="F24">
-        <v>27.19630808463017</v>
+        <v>38.42227661426787</v>
       </c>
       <c r="G24">
-        <v>2.074334147790295</v>
+        <v>3.652621811564523</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.674660120311152</v>
+        <v>8.234571039477039</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.377933682840148</v>
+        <v>12.36563069064779</v>
       </c>
       <c r="M24">
-        <v>15.51628733679756</v>
+        <v>17.39595566605789</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.07101258242072</v>
+        <v>24.85514438704014</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.05257782608408</v>
+        <v>17.47606930264221</v>
       </c>
       <c r="C25">
-        <v>13.02239199273915</v>
+        <v>12.19979246248336</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.090942783165232</v>
+        <v>15.86542731236978</v>
       </c>
       <c r="F25">
-        <v>26.40261202197057</v>
+        <v>38.5487040909973</v>
       </c>
       <c r="G25">
-        <v>2.085283145958932</v>
+        <v>3.656423190352637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.651717606523965</v>
+        <v>8.232906886145031</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.034211696851971</v>
+        <v>12.33448307362909</v>
       </c>
       <c r="M25">
-        <v>14.35284647823311</v>
+        <v>17.14706397074226</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.9697820975222</v>
+        <v>25.02941864064746</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.77516109082218</v>
+        <v>21.10076690302909</v>
       </c>
       <c r="C2">
-        <v>12.00691989816932</v>
+        <v>12.47545548181385</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.91959507680913</v>
+        <v>9.178636461733335</v>
       </c>
       <c r="F2">
-        <v>38.67410743912644</v>
+        <v>25.90413818033223</v>
       </c>
       <c r="G2">
-        <v>3.65945006192706</v>
+        <v>2.093645568335477</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.232652121800822</v>
+        <v>5.636789512954159</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.31552533303935</v>
+        <v>7.780425547322674</v>
       </c>
       <c r="M2">
-        <v>16.96736302495654</v>
+        <v>13.44635219274381</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.17923915579559</v>
+        <v>15.97117931964182</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.28589118250084</v>
+        <v>19.67432545579411</v>
       </c>
       <c r="C3">
-        <v>11.87400362820946</v>
+        <v>12.09252632034897</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.9596418490704</v>
+        <v>9.24488723765803</v>
       </c>
       <c r="F3">
-        <v>38.77913314024681</v>
+        <v>25.61807259004557</v>
       </c>
       <c r="G3">
-        <v>3.661644842525671</v>
+        <v>2.099518174743744</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.233091700986588</v>
+        <v>5.627889201249138</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.30519580041614</v>
+        <v>7.608778525093521</v>
       </c>
       <c r="M3">
-        <v>16.84823663255789</v>
+        <v>12.80320496673795</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.294088368547</v>
+        <v>16.01469766330202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97954520309201</v>
+        <v>18.74673745304253</v>
       </c>
       <c r="C4">
-        <v>11.79145150709885</v>
+        <v>11.85190119032502</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.98588193838138</v>
+        <v>9.288848713155055</v>
       </c>
       <c r="F4">
-        <v>38.85345887512945</v>
+        <v>25.46718243613094</v>
       </c>
       <c r="G4">
-        <v>3.663063612318203</v>
+        <v>2.103230665324286</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.233665928874686</v>
+        <v>5.623022041787619</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.30010767453179</v>
+        <v>7.50384477826321</v>
       </c>
       <c r="M4">
-        <v>16.77654884899353</v>
+        <v>12.39513080216021</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.37114008423291</v>
+        <v>16.06080556696676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.85339536486431</v>
+        <v>18.35563892747227</v>
       </c>
       <c r="C5">
-        <v>11.75759702162447</v>
+        <v>11.75255330767916</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.99699094863865</v>
+        <v>9.30757757430696</v>
       </c>
       <c r="F5">
-        <v>38.88621447878486</v>
+        <v>25.41178653993498</v>
       </c>
       <c r="G5">
-        <v>3.663659725267994</v>
+        <v>2.104771111542593</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.233976828167259</v>
+        <v>5.621188673495146</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.2983514561307</v>
+        <v>7.461244333432518</v>
       </c>
       <c r="M5">
-        <v>16.74772350628098</v>
+        <v>12.22571154053426</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.40417718201254</v>
+        <v>16.08423106329613</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.83237459157837</v>
+        <v>18.28990366376731</v>
       </c>
       <c r="C6">
-        <v>11.75196326592072</v>
+        <v>11.73598158711422</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.99886073646919</v>
+        <v>9.310736342430955</v>
       </c>
       <c r="F6">
-        <v>38.8918023243335</v>
+        <v>25.40295188526407</v>
       </c>
       <c r="G6">
-        <v>3.66375979536375</v>
+        <v>2.105028588221565</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.234033107981254</v>
+        <v>5.620893299053954</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.29807904925634</v>
+        <v>7.45418163974372</v>
       </c>
       <c r="M6">
-        <v>16.74296114054424</v>
+        <v>12.19739694737404</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.40976174233442</v>
+        <v>16.08839391155381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97784896446716</v>
+        <v>18.74151611258416</v>
       </c>
       <c r="C7">
-        <v>11.79099576916534</v>
+        <v>11.85056644811485</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.98603007316471</v>
+        <v>9.289098015011238</v>
       </c>
       <c r="F7">
-        <v>38.8538906484345</v>
+        <v>25.46641086481779</v>
       </c>
       <c r="G7">
-        <v>3.663071578939126</v>
+        <v>2.103251327700618</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.233669809935378</v>
+        <v>5.622996709155366</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.30008270273119</v>
+        <v>7.503269540952894</v>
       </c>
       <c r="M7">
-        <v>16.77615850093975</v>
+        <v>12.39285833841906</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.37157900909268</v>
+        <v>16.0611030341829</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.60779637786373</v>
+        <v>20.6196173962405</v>
       </c>
       <c r="C8">
-        <v>11.96129926553821</v>
+        <v>12.34461699308928</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.9330609473871</v>
+        <v>9.200791242487258</v>
       </c>
       <c r="F8">
-        <v>38.70827407552061</v>
+        <v>25.80029119782091</v>
       </c>
       <c r="G8">
-        <v>3.660192086566</v>
+        <v>2.095648763139145</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.232740748790194</v>
+        <v>5.633596478968635</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.31170452592896</v>
+        <v>7.721173508226414</v>
       </c>
       <c r="M8">
-        <v>16.92599924599533</v>
+        <v>13.22743361466649</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.21748002454568</v>
+        <v>15.98201642124719</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.78877577309483</v>
+        <v>23.89595880835197</v>
       </c>
       <c r="C9">
-        <v>12.28681307912102</v>
+        <v>13.26617772844489</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.84225641330729</v>
+        <v>9.054217815779577</v>
       </c>
       <c r="F9">
-        <v>38.50108241747566</v>
+        <v>26.65641498153035</v>
       </c>
       <c r="G9">
-        <v>3.655107448980128</v>
+        <v>2.081550721996001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.233317596673572</v>
+        <v>5.659139435703895</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.34436282204513</v>
+        <v>8.150202407394872</v>
       </c>
       <c r="M9">
-        <v>17.23041000597937</v>
+        <v>14.75274596666829</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.96736074140238</v>
+        <v>15.9914567043873</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.61449249295694</v>
+        <v>26.06085021035733</v>
       </c>
       <c r="C10">
-        <v>12.51952683236968</v>
+        <v>13.91033410092458</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.78346200830314</v>
+        <v>8.963549990816091</v>
       </c>
       <c r="F10">
-        <v>38.39699340490941</v>
+        <v>27.41374763878228</v>
       </c>
       <c r="G10">
-        <v>3.651710715607415</v>
+        <v>2.071633636443556</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.23518288737851</v>
+        <v>5.680831184324687</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.37425560757147</v>
+        <v>8.464066840911238</v>
       </c>
       <c r="M10">
-        <v>17.4591640086743</v>
+        <v>15.79850856912275</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.81564525509172</v>
+        <v>16.11318938869509</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.97942095693964</v>
+        <v>26.99437970370823</v>
       </c>
       <c r="C11">
-        <v>12.62373126719485</v>
+        <v>14.19556094737627</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.75842473541385</v>
+        <v>8.926191823696419</v>
       </c>
       <c r="F11">
-        <v>38.36015755606545</v>
+        <v>27.78702134742023</v>
       </c>
       <c r="G11">
-        <v>3.650238269201971</v>
+        <v>2.067205079158162</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.23634001576136</v>
+        <v>5.691340837712612</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.38910830852441</v>
+        <v>8.606112662168041</v>
       </c>
       <c r="M11">
-        <v>17.56404597948362</v>
+        <v>16.25699152183426</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.75364888375823</v>
+        <v>16.19651908393267</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.11595549413624</v>
+        <v>27.34061361139715</v>
       </c>
       <c r="C12">
-        <v>12.66293081199452</v>
+        <v>14.30240316294272</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.7491887231954</v>
+        <v>8.912621787675452</v>
       </c>
       <c r="F12">
-        <v>38.34772497108819</v>
+        <v>27.93255948675195</v>
       </c>
       <c r="G12">
-        <v>3.649691093184939</v>
+        <v>2.06553887185789</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.236822177126783</v>
+        <v>5.695413376558777</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.3949104810612</v>
+        <v>8.659763423002618</v>
       </c>
       <c r="M12">
-        <v>17.60385512140327</v>
+        <v>16.42807114828929</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.73118714366218</v>
+        <v>16.23233272736749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.08662574081998</v>
+        <v>27.26636776620278</v>
       </c>
       <c r="C13">
-        <v>12.6545004133027</v>
+        <v>14.27944530143354</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.75116697462128</v>
+        <v>8.915518393301653</v>
       </c>
       <c r="F13">
-        <v>38.35033504923301</v>
+        <v>27.90102826106933</v>
       </c>
       <c r="G13">
-        <v>3.649808475296203</v>
+        <v>2.065897258067611</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.236716385245956</v>
+        <v>5.694532149293583</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.39365301520652</v>
+        <v>8.648215443454253</v>
       </c>
       <c r="M13">
-        <v>17.59527779591802</v>
+        <v>16.39133971257267</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.73597945483889</v>
+        <v>16.22442650587468</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.99068755712034</v>
+        <v>27.02300974808275</v>
       </c>
       <c r="C14">
-        <v>12.62696157987166</v>
+        <v>14.20437453416984</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.75765997537979</v>
+        <v>8.925063744824437</v>
       </c>
       <c r="F14">
-        <v>38.35910430760885</v>
+        <v>27.79891066508803</v>
       </c>
       <c r="G14">
-        <v>3.650193044423055</v>
+        <v>2.067067789673776</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.236378804271292</v>
+        <v>5.691674026147433</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.38958210909011</v>
+        <v>8.610529505171661</v>
       </c>
       <c r="M14">
-        <v>17.5673193909466</v>
+        <v>16.27111748310628</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.75178057075557</v>
+        <v>16.1993788085268</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.93170369535233</v>
+        <v>26.87300181179296</v>
       </c>
       <c r="C15">
-        <v>12.61005869508706</v>
+        <v>14.15823836569453</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.76166902111039</v>
+        <v>8.930986198353299</v>
       </c>
       <c r="F15">
-        <v>38.36467332167224</v>
+        <v>27.73690742626789</v>
       </c>
       <c r="G15">
-        <v>3.650429957908999</v>
+        <v>2.067786145006729</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.236177742178304</v>
+        <v>5.68993543746354</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.38711163447021</v>
+        <v>8.587426758624266</v>
       </c>
       <c r="M15">
-        <v>17.55020536771143</v>
+        <v>16.19714594290567</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.76159154754178</v>
+        <v>16.18459790178048</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.59041798880476</v>
+        <v>25.99881840462709</v>
       </c>
       <c r="C16">
-        <v>12.5126815676366</v>
+        <v>13.89153278851307</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.78513257991364</v>
+        <v>8.966071140327081</v>
       </c>
       <c r="F16">
-        <v>38.3996126859077</v>
+        <v>27.38993667026397</v>
       </c>
       <c r="G16">
-        <v>3.651808402701747</v>
+        <v>2.071924625554093</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.235113442483035</v>
+        <v>5.680157309043302</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.37330996975887</v>
+        <v>8.454766115458167</v>
       </c>
       <c r="M16">
-        <v>17.45232406925012</v>
+        <v>15.76819327653655</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.8198385921479</v>
+        <v>16.1083266878537</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.37822328843305</v>
+        <v>25.44946991292366</v>
       </c>
       <c r="C17">
-        <v>12.45250331425422</v>
+        <v>13.72588412241949</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.7999638722937</v>
+        <v>8.988602416491752</v>
       </c>
       <c r="F17">
-        <v>38.42374325642776</v>
+        <v>27.18448709734137</v>
       </c>
       <c r="G17">
-        <v>3.652672627667356</v>
+        <v>2.074483884507373</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.234539289072611</v>
+        <v>5.67432347226336</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.36516254900774</v>
+        <v>8.373170399387417</v>
       </c>
       <c r="M17">
-        <v>17.3924692021408</v>
+        <v>15.50058149983571</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.85737314377937</v>
+        <v>16.06886867385015</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.25517418913766</v>
+        <v>25.1286651675678</v>
       </c>
       <c r="C18">
-        <v>12.41773556973741</v>
+        <v>13.62987502212135</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.80865529813872</v>
+        <v>9.00192654639644</v>
       </c>
       <c r="F18">
-        <v>38.43861200739742</v>
+        <v>27.06902247187022</v>
       </c>
       <c r="G18">
-        <v>3.653176557229467</v>
+        <v>2.075963764958127</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.234238121679516</v>
+        <v>5.67102839957539</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.36059459333869</v>
+        <v>8.326171516899127</v>
       </c>
       <c r="M18">
-        <v>17.35812103291461</v>
+        <v>15.34503789595427</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.87962243451912</v>
+        <v>16.04879069733652</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2133438715719</v>
+        <v>25.01921289700233</v>
       </c>
       <c r="C19">
-        <v>12.40593790070581</v>
+        <v>13.59724372385048</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.81162571267616</v>
+        <v>9.006499991502277</v>
       </c>
       <c r="F19">
-        <v>38.44381611189615</v>
+        <v>27.03039091288439</v>
       </c>
       <c r="G19">
-        <v>3.653348357278104</v>
+        <v>2.076466209969879</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.234141156421067</v>
+        <v>5.669923104707408</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.35906834447557</v>
+        <v>8.310248047168759</v>
       </c>
       <c r="M19">
-        <v>17.34650563395249</v>
+        <v>15.29209729353512</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.88726891881454</v>
+        <v>16.04243474030411</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.40091620006431</v>
+        <v>25.50844857338413</v>
       </c>
       <c r="C20">
-        <v>12.45892557493769</v>
+        <v>13.74359385744746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.79836841224538</v>
+        <v>8.986166050444746</v>
       </c>
       <c r="F20">
-        <v>38.42107207422823</v>
+        <v>27.20607724296031</v>
       </c>
       <c r="G20">
-        <v>3.652579920858693</v>
+        <v>2.074210641087267</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.23459740283838</v>
+        <v>5.674938240297049</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.36601763841059</v>
+        <v>8.381863610996279</v>
       </c>
       <c r="M20">
-        <v>17.39883288655678</v>
+        <v>15.52923741800059</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.85330913657645</v>
+        <v>16.07279641698484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.01891275112111</v>
+        <v>27.0946864637905</v>
       </c>
       <c r="C21">
-        <v>12.63505764211758</v>
+        <v>14.22645662323917</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.7557461778397</v>
+        <v>8.922244244845421</v>
       </c>
       <c r="F21">
-        <v>38.35648737953745</v>
+        <v>27.82879105681112</v>
       </c>
       <c r="G21">
-        <v>3.650079805114049</v>
+        <v>2.066723692570829</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.236476769484238</v>
+        <v>5.692511004908173</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.39077302930703</v>
+        <v>8.621602797274626</v>
       </c>
       <c r="M21">
-        <v>17.57552914116285</v>
+        <v>16.30649892519918</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.74711181136979</v>
+        <v>16.20661848741797</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.41311062621263</v>
+        <v>28.08903962236146</v>
       </c>
       <c r="C22">
-        <v>12.74864252892034</v>
+        <v>14.5352187184578</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.72931818921997</v>
+        <v>8.883838200106757</v>
       </c>
       <c r="F22">
-        <v>38.32311749785172</v>
+        <v>28.26019766903645</v>
       </c>
       <c r="G22">
-        <v>3.648506473340078</v>
+        <v>2.061892860991076</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.237961219778136</v>
+        <v>5.704536745046837</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.4079870465169</v>
+        <v>8.777463717365775</v>
       </c>
       <c r="M22">
-        <v>17.69153841120269</v>
+        <v>16.79967624801254</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.68362405636963</v>
+        <v>16.31900540755543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.20364317153257</v>
+        <v>27.56217444335328</v>
       </c>
       <c r="C23">
-        <v>12.68816699656853</v>
+        <v>14.37106279948368</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.74329284026957</v>
+        <v>8.904021629733505</v>
       </c>
       <c r="F23">
-        <v>38.34011753167753</v>
+        <v>28.02769748056476</v>
       </c>
       <c r="G23">
-        <v>3.64934065914776</v>
+        <v>2.06446585374506</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.237145631629078</v>
+        <v>5.69806872756969</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.39870579048931</v>
+        <v>8.694363160811518</v>
       </c>
       <c r="M23">
-        <v>17.62958215626312</v>
+        <v>16.53782807912653</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.7169653429292</v>
+        <v>16.25666490089822</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.39066001338588</v>
+        <v>25.4817998308456</v>
       </c>
       <c r="C24">
-        <v>12.45602260019467</v>
+        <v>13.73558969816047</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.79908920660837</v>
+        <v>8.987266378527197</v>
       </c>
       <c r="F24">
-        <v>38.42227661426787</v>
+        <v>27.19630808463008</v>
       </c>
       <c r="G24">
-        <v>3.652621811564523</v>
+        <v>2.074334147790426</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.234571039477039</v>
+        <v>5.67466012031113</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.36563069064779</v>
+        <v>8.377933682840172</v>
       </c>
       <c r="M24">
-        <v>17.39595566605789</v>
+        <v>15.51628733679756</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.85514438704014</v>
+        <v>16.07101258242061</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.47606930264221</v>
+        <v>23.05257782608402</v>
       </c>
       <c r="C25">
-        <v>12.19979246248336</v>
+        <v>13.02239199273911</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.86542731236978</v>
+        <v>9.090942783165296</v>
       </c>
       <c r="F25">
-        <v>38.5487040909973</v>
+        <v>26.40261202197065</v>
       </c>
       <c r="G25">
-        <v>3.656423190352637</v>
+        <v>2.085283145959065</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.232906886145031</v>
+        <v>5.651717606524023</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.33448307362909</v>
+        <v>8.034211696851985</v>
       </c>
       <c r="M25">
-        <v>17.14706397074226</v>
+        <v>14.35284647823315</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.02941864064746</v>
+        <v>15.96978209752234</v>
       </c>
     </row>
   </sheetData>
